--- a/py/apps/web-scraper/Files/Final/Course-Tracker-AWS-DevOps-Engineer–Professional-DOP-C01.xlsx
+++ b/py/apps/web-scraper/Files/Final/Course-Tracker-AWS-DevOps-Engineer–Professional-DOP-C01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Experiments\Playground\py\apps\web-scraper\Files\Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F273E4-EDA1-4DEC-B9C4-B1ED3C2F73DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1482BBF0-42E0-4419-B06E-995CDB1D3CF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Codes" sheetId="10" state="hidden" r:id="rId1"/>
@@ -1800,6 +1800,20 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="9" fontId="20" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1812,11 +1826,14 @@
     <xf numFmtId="0" fontId="28" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="9" fontId="21" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1839,23 +1856,6 @@
     <xf numFmtId="0" fontId="20" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="3" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="3" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="3" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="3" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Explanatory Text" xfId="2" builtinId="53"/>
@@ -1863,7 +1863,7 @@
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="66">
+  <dxfs count="60">
     <dxf>
       <fill>
         <patternFill>
@@ -1906,48 +1906,6 @@
       <fill>
         <patternFill>
           <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2979,14 +2937,14 @@
   </sheetPr>
   <dimension ref="B1:V53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
       <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="W16" sqref="W16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="32"/>
+    <col min="1" max="1" width="2.140625" style="32" customWidth="1"/>
     <col min="2" max="2" width="47.85546875" style="32" customWidth="1"/>
     <col min="3" max="3" width="14" style="32" customWidth="1"/>
     <col min="4" max="4" width="2" style="32" customWidth="1"/>
@@ -3004,54 +2962,54 @@
         <v>26</v>
       </c>
       <c r="D2" s="19"/>
-      <c r="I2" s="69" t="s">
+      <c r="I2" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="69"/>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="69"/>
-      <c r="S2" s="69"/>
-      <c r="T2" s="69"/>
-      <c r="U2" s="69"/>
-      <c r="V2" s="69"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="75"/>
+      <c r="Q2" s="75"/>
+      <c r="R2" s="75"/>
+      <c r="S2" s="75"/>
+      <c r="T2" s="75"/>
+      <c r="U2" s="75"/>
+      <c r="V2" s="75"/>
     </row>
     <row r="3" spans="2:22" ht="8.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="69"/>
-      <c r="Q3" s="69"/>
-      <c r="R3" s="69"/>
-      <c r="S3" s="69"/>
-      <c r="T3" s="69"/>
-      <c r="U3" s="69"/>
-      <c r="V3" s="69"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="75"/>
+      <c r="O3" s="75"/>
+      <c r="P3" s="75"/>
+      <c r="Q3" s="75"/>
+      <c r="R3" s="75"/>
+      <c r="S3" s="75"/>
+      <c r="T3" s="75"/>
+      <c r="U3" s="75"/>
+      <c r="V3" s="75"/>
     </row>
     <row r="4" spans="2:22" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="69"/>
-      <c r="S4" s="69"/>
-      <c r="T4" s="69"/>
-      <c r="U4" s="69"/>
-      <c r="V4" s="69"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="75"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="75"/>
+      <c r="R4" s="75"/>
+      <c r="S4" s="75"/>
+      <c r="T4" s="75"/>
+      <c r="U4" s="75"/>
+      <c r="V4" s="75"/>
     </row>
     <row r="5" spans="2:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="19" t="s">
@@ -3062,78 +3020,78 @@
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="69"/>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="69"/>
-      <c r="T5" s="69"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="69"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="75"/>
+      <c r="T5" s="75"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
     </row>
     <row r="6" spans="2:22" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B6" s="33" t="s">
         <v>260</v>
       </c>
-      <c r="C6" s="67">
+      <c r="C6" s="73">
         <v>0.22</v>
       </c>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="69"/>
-      <c r="O6" s="69"/>
-      <c r="P6" s="69"/>
-      <c r="Q6" s="69"/>
-      <c r="R6" s="69"/>
-      <c r="S6" s="69"/>
-      <c r="T6" s="69"/>
-      <c r="U6" s="69"/>
-      <c r="V6" s="69"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="75"/>
+      <c r="N6" s="75"/>
+      <c r="O6" s="75"/>
+      <c r="P6" s="75"/>
+      <c r="Q6" s="75"/>
+      <c r="R6" s="75"/>
+      <c r="S6" s="75"/>
+      <c r="T6" s="75"/>
+      <c r="U6" s="75"/>
+      <c r="V6" s="75"/>
     </row>
     <row r="7" spans="2:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="33" t="s">
         <v>261</v>
       </c>
-      <c r="C7" s="68">
+      <c r="C7" s="74">
         <v>0.19</v>
       </c>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="70"/>
-      <c r="N7" s="70"/>
-      <c r="O7" s="70"/>
-      <c r="P7" s="70"/>
-      <c r="Q7" s="70"/>
-      <c r="R7" s="70"/>
-      <c r="S7" s="70"/>
-      <c r="T7" s="70"/>
-      <c r="U7" s="70"/>
-      <c r="V7" s="70"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
+      <c r="L7" s="76"/>
+      <c r="M7" s="76"/>
+      <c r="N7" s="76"/>
+      <c r="O7" s="76"/>
+      <c r="P7" s="76"/>
+      <c r="Q7" s="76"/>
+      <c r="R7" s="76"/>
+      <c r="S7" s="76"/>
+      <c r="T7" s="76"/>
+      <c r="U7" s="76"/>
+      <c r="V7" s="76"/>
     </row>
     <row r="8" spans="2:22" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B8" s="33" t="s">
         <v>262</v>
       </c>
-      <c r="C8" s="68">
+      <c r="C8" s="74">
         <v>0.15</v>
       </c>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
       <c r="H8" s="40"/>
     </row>
     <row r="9" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3162,21 +3120,21 @@
       <c r="B11" s="33" t="s">
         <v>265</v>
       </c>
-      <c r="C11" s="68">
+      <c r="C11" s="74">
         <v>0.16</v>
       </c>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
     </row>
     <row r="12" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="72">
+      <c r="C12" s="77">
         <v>1</v>
       </c>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
     </row>
     <row r="13" spans="2:22" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="2:22" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3197,10 +3155,10 @@
       <c r="B16" s="36" t="s">
         <v>266</v>
       </c>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
     </row>
     <row r="17" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="33" t="s">
@@ -3241,13 +3199,13 @@
     </row>
     <row r="21" spans="2:15" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="63"/>
-      <c r="C21" s="80" t="s">
+      <c r="C21" s="78" t="s">
         <v>271</v>
       </c>
-      <c r="D21" s="81"/>
-      <c r="E21" s="81"/>
-      <c r="F21" s="81"/>
-      <c r="G21" s="81"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="79"/>
     </row>
     <row r="22" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="42"/>
@@ -3258,13 +3216,13 @@
       <c r="G22" s="64"/>
     </row>
     <row r="23" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="82" t="s">
+      <c r="B23" s="67" t="s">
         <v>272</v>
       </c>
-      <c r="C23" s="83"/>
-      <c r="D23" s="83"/>
-      <c r="E23" s="83"/>
-      <c r="F23" s="83"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68"/>
     </row>
     <row r="24" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="33" t="s">
@@ -3276,13 +3234,13 @@
       <c r="G24" s="33"/>
     </row>
     <row r="25" spans="2:15" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="80" t="s">
+      <c r="C25" s="78" t="s">
         <v>274</v>
       </c>
-      <c r="D25" s="81"/>
-      <c r="E25" s="81"/>
-      <c r="F25" s="81"/>
-      <c r="G25" s="81"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="79"/>
     </row>
     <row r="26" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="33" t="s">
@@ -3303,13 +3261,13 @@
       <c r="G27" s="33"/>
     </row>
     <row r="28" spans="2:15" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="80" t="s">
+      <c r="C28" s="78" t="s">
         <v>277</v>
       </c>
-      <c r="D28" s="81"/>
-      <c r="E28" s="81"/>
-      <c r="F28" s="81"/>
-      <c r="G28" s="81"/>
+      <c r="D28" s="79"/>
+      <c r="E28" s="79"/>
+      <c r="F28" s="79"/>
+      <c r="G28" s="79"/>
     </row>
     <row r="29" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="62"/>
@@ -3328,32 +3286,32 @@
       <c r="E30" s="37"/>
       <c r="F30" s="37"/>
     </row>
-    <row r="31" spans="2:15" s="84" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="85" t="s">
+    <row r="31" spans="2:15" s="69" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="71" t="s">
         <v>279</v>
       </c>
-      <c r="D31" s="86"/>
-      <c r="E31" s="86"/>
-      <c r="F31" s="86"/>
-      <c r="G31" s="86"/>
-    </row>
-    <row r="32" spans="2:15" s="84" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="85" t="s">
+      <c r="D31" s="72"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="72"/>
+    </row>
+    <row r="32" spans="2:15" s="69" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="71" t="s">
         <v>280</v>
       </c>
-      <c r="D32" s="86"/>
-      <c r="E32" s="86"/>
-      <c r="F32" s="86"/>
-      <c r="G32" s="86"/>
-    </row>
-    <row r="33" spans="2:7" s="84" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="85" t="s">
+      <c r="D32" s="72"/>
+      <c r="E32" s="72"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="72"/>
+    </row>
+    <row r="33" spans="2:7" s="69" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="71" t="s">
         <v>281</v>
       </c>
-      <c r="D33" s="86"/>
-      <c r="E33" s="86"/>
-      <c r="F33" s="86"/>
-      <c r="G33" s="86"/>
+      <c r="D33" s="72"/>
+      <c r="E33" s="72"/>
+      <c r="F33" s="72"/>
+      <c r="G33" s="72"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C34" s="33" t="s">
@@ -3376,19 +3334,19 @@
       <c r="B36" s="36" t="s">
         <v>283</v>
       </c>
-      <c r="C36" s="71"/>
-      <c r="D36" s="71"/>
-      <c r="E36" s="71"/>
-      <c r="F36" s="71"/>
+      <c r="C36" s="70"/>
+      <c r="D36" s="70"/>
+      <c r="E36" s="70"/>
+      <c r="F36" s="70"/>
     </row>
     <row r="37" spans="2:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="85" t="s">
+      <c r="C37" s="71" t="s">
         <v>284</v>
       </c>
-      <c r="D37" s="86"/>
-      <c r="E37" s="86"/>
-      <c r="F37" s="86"/>
-      <c r="G37" s="86"/>
+      <c r="D37" s="72"/>
+      <c r="E37" s="72"/>
+      <c r="F37" s="72"/>
+      <c r="G37" s="72"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C38" s="33" t="s">
@@ -3420,10 +3378,10 @@
       <c r="B41" s="36" t="s">
         <v>287</v>
       </c>
-      <c r="C41" s="71"/>
-      <c r="D41" s="71"/>
-      <c r="E41" s="71"/>
-      <c r="F41" s="71"/>
+      <c r="C41" s="70"/>
+      <c r="D41" s="70"/>
+      <c r="E41" s="70"/>
+      <c r="F41" s="70"/>
     </row>
     <row r="42" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C42" s="33" t="s">
@@ -3551,145 +3509,145 @@
     <mergeCell ref="C33:G33"/>
   </mergeCells>
   <conditionalFormatting sqref="C38:G40 C37">
-    <cfRule type="expression" dxfId="65" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="16" stopIfTrue="1">
       <formula>$B37="New"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="17" stopIfTrue="1">
       <formula>$B37="IN-PROGRESS"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="18" stopIfTrue="1">
       <formula>$B37="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="expression" dxfId="62" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="37" stopIfTrue="1">
       <formula>$B6="New"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="38" stopIfTrue="1">
       <formula>$B6="IN-PROGRESS"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="39" stopIfTrue="1">
       <formula>$B6="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="expression" dxfId="59" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="34" stopIfTrue="1">
       <formula>$B7="New"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="35" stopIfTrue="1">
       <formula>$B7="IN-PROGRESS"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="36" stopIfTrue="1">
       <formula>$B7="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B12">
-    <cfRule type="expression" dxfId="56" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="31" stopIfTrue="1">
       <formula>$B8="New"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="32" stopIfTrue="1">
       <formula>$B8="IN-PROGRESS"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="33" stopIfTrue="1">
       <formula>$B8="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="53" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="28" stopIfTrue="1">
       <formula>$B17="New"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="29" stopIfTrue="1">
       <formula>$B17="IN-PROGRESS"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="30" stopIfTrue="1">
       <formula>$B17="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:G18 C19:G20 C22:G22 C21">
-    <cfRule type="expression" dxfId="50" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="25" stopIfTrue="1">
       <formula>$B18="New"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="26" stopIfTrue="1">
       <formula>$B18="IN-PROGRESS"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="27" stopIfTrue="1">
       <formula>$B18="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24:G24 C26:G27 C25 C29:G29 C28">
-    <cfRule type="expression" dxfId="47" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="22" stopIfTrue="1">
       <formula>$B24="New"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="23" stopIfTrue="1">
       <formula>$B24="IN-PROGRESS"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="24" stopIfTrue="1">
       <formula>$B24="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34:G35 C31">
-    <cfRule type="expression" dxfId="44" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="19" stopIfTrue="1">
       <formula>$B31="New"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="20" stopIfTrue="1">
       <formula>$B31="IN-PROGRESS"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="21" stopIfTrue="1">
       <formula>$B31="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="41" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="13" stopIfTrue="1">
       <formula>$B18="New"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="14" stopIfTrue="1">
       <formula>$B18="IN-PROGRESS"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="15" stopIfTrue="1">
       <formula>$B18="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="expression" dxfId="38" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="10" stopIfTrue="1">
       <formula>$B32="New"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="11" stopIfTrue="1">
       <formula>$B32="IN-PROGRESS"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="12" stopIfTrue="1">
       <formula>$B32="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="expression" dxfId="35" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="7" stopIfTrue="1">
       <formula>$B33="New"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="8" stopIfTrue="1">
       <formula>$B33="IN-PROGRESS"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="9" stopIfTrue="1">
       <formula>$B33="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42:G46">
-    <cfRule type="expression" dxfId="32" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="4" stopIfTrue="1">
       <formula>$B42="New"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="5" stopIfTrue="1">
       <formula>$B42="IN-PROGRESS"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="6" stopIfTrue="1">
       <formula>$B42="Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:G53">
-    <cfRule type="expression" dxfId="29" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="1" stopIfTrue="1">
       <formula>$B48="New"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="2" stopIfTrue="1">
       <formula>$B48="IN-PROGRESS"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="3" stopIfTrue="1">
       <formula>$B48="Done"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3964,13 +3922,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B6:D37">
-    <cfRule type="expression" dxfId="26" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="1" stopIfTrue="1">
       <formula>$B6="New"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="2" stopIfTrue="1">
       <formula>$B6="IN-PROGRESS"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="3" stopIfTrue="1">
       <formula>$B6="Done"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4245,32 +4203,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A5:A24">
-    <cfRule type="expression" dxfId="23" priority="18">
+    <cfRule type="expression" dxfId="17" priority="18">
       <formula>RegExMatch((#REF!),"Done")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B14">
-    <cfRule type="expression" dxfId="22" priority="11">
+    <cfRule type="expression" dxfId="16" priority="11">
       <formula>RegExMatch((#REF!),"Done")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="21" priority="9">
+    <cfRule type="expression" dxfId="15" priority="9">
       <formula>RegExMatch((#REF!),"Done")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:C12">
-    <cfRule type="expression" dxfId="20" priority="3">
+    <cfRule type="expression" dxfId="14" priority="3">
       <formula>RegExMatch((#REF!),"Done")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15:B42">
-    <cfRule type="expression" dxfId="19" priority="2">
+    <cfRule type="expression" dxfId="13" priority="2">
       <formula>RegExMatch((#REF!),"Done")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:C42">
-    <cfRule type="expression" dxfId="18" priority="1">
+    <cfRule type="expression" dxfId="12" priority="1">
       <formula>RegExMatch((#REF!),"Done")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4297,7 +4255,7 @@
   </sheetPr>
   <dimension ref="B1:R741"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F754" sqref="F754"/>
     </sheetView>
@@ -4330,7 +4288,7 @@
       </c>
       <c r="Q2" s="49">
         <f>SUBTOTAL(103,J6:J3501)</f>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="R2" s="50">
         <f ca="1">P2/Q2</f>
@@ -4338,25 +4296,25 @@
       </c>
     </row>
     <row r="3" spans="2:18" ht="32.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
       <c r="F3" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="78">
+      <c r="G3" s="85">
         <f ca="1">$R$2</f>
         <v>0</v>
       </c>
-      <c r="H3" s="79"/>
-      <c r="I3" s="74" t="str">
+      <c r="H3" s="86"/>
+      <c r="I3" s="81" t="str">
         <f ca="1">CONCATENATE($P$2,"/",$Q$2," Completed")</f>
-        <v>0/10 Completed</v>
-      </c>
-      <c r="J3" s="75"/>
+        <v>0/2 Completed</v>
+      </c>
+      <c r="J3" s="82"/>
     </row>
     <row r="4" spans="2:18" s="55" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="52" t="s">
@@ -4368,8 +4326,8 @@
       <c r="F4" s="53"/>
       <c r="G4" s="54"/>
       <c r="H4" s="54"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="77"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="84"/>
       <c r="K4" s="53"/>
       <c r="L4" s="53"/>
       <c r="M4" s="53"/>
@@ -4546,7 +4504,7 @@
       <c r="L9" s="46"/>
       <c r="M9" s="46"/>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="B10" s="45" t="s">
         <v>58</v>
       </c>
@@ -4876,7 +4834,7 @@
       <c r="L20" s="46"/>
       <c r="M20" s="46"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21" s="45" t="s">
         <v>58</v>
       </c>
@@ -5656,7 +5614,7 @@
       <c r="L46" s="46"/>
       <c r="M46" s="46"/>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B47" s="45" t="s">
         <v>58</v>
       </c>
@@ -5926,7 +5884,7 @@
       <c r="L55" s="46"/>
       <c r="M55" s="46"/>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B56" s="45" t="s">
         <v>58</v>
       </c>
@@ -6226,7 +6184,7 @@
       <c r="L65" s="46"/>
       <c r="M65" s="46"/>
     </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B66" s="45" t="s">
         <v>58</v>
       </c>
@@ -6406,7 +6364,7 @@
       <c r="L71" s="46"/>
       <c r="M71" s="46"/>
     </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B72" s="45" t="s">
         <v>58</v>
       </c>
@@ -6736,7 +6694,7 @@
       <c r="L82" s="46"/>
       <c r="M82" s="46"/>
     </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B83" s="45" t="s">
         <v>58</v>
       </c>
@@ -7096,7 +7054,7 @@
       <c r="L94" s="46"/>
       <c r="M94" s="46"/>
     </row>
-    <row r="95" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="B95" s="45" t="s">
         <v>58</v>
       </c>
@@ -8285,6 +8243,11 @@
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
+    <filterColumn colId="3">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="6">
       <filters blank="1"/>
     </filterColumn>
@@ -8310,24 +8273,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:M113 B743:M5465">
-    <cfRule type="expression" dxfId="17" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="9" stopIfTrue="1">
       <formula>$J6="ON-HOLD"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="10" stopIfTrue="1">
       <formula>$J6="SKIPPED"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="11" stopIfTrue="1">
       <formula>$J6="IN-PROGRESS"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="12" stopIfTrue="1">
       <formula>$J6="DONE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:M113 B743:M3000">
-    <cfRule type="expression" dxfId="13" priority="7">
+    <cfRule type="expression" dxfId="7" priority="7">
       <formula>$G6&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="8" stopIfTrue="1">
       <formula>AND($G6&gt;0,$J6="NEW")</formula>
     </cfRule>
   </conditionalFormatting>

--- a/py/apps/web-scraper/Files/Final/Course-Tracker-AWS-DevOps-Engineer–Professional-DOP-C01.xlsx
+++ b/py/apps/web-scraper/Files/Final/Course-Tracker-AWS-DevOps-Engineer–Professional-DOP-C01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Experiments\Playground\py\apps\web-scraper\Files\Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1482BBF0-42E0-4419-B06E-995CDB1D3CF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8A9DD1-3059-49E0-AE76-F2CA8414E6F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Codes" sheetId="10" state="hidden" r:id="rId1"/>
@@ -2937,7 +2937,7 @@
   </sheetPr>
   <dimension ref="B1:V53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
       <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="W16" sqref="W16"/>
     </sheetView>
@@ -4255,7 +4255,7 @@
   </sheetPr>
   <dimension ref="B1:R741"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F754" sqref="F754"/>
     </sheetView>
